--- a/T23_Office/t23_17/data.xlsx
+++ b/T23_Office/t23_17/data.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="buyers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="customers" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="products" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bills" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invoices" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="items" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
@@ -532,10 +532,8 @@
           <t>шт.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -554,10 +552,8 @@
           <t>шт.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +593,7 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Client</t>
+          <t>Customer</t>
         </is>
       </c>
     </row>
@@ -607,10 +603,8 @@
           <t>I01</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
+      <c r="B2" t="n">
+        <v>253</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -629,10 +623,8 @@
           <t>I02</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>255</t>
-        </is>
+      <c r="B3" t="n">
+        <v>255</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -692,10 +684,8 @@
           <t>P01</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
+      <c r="C2" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="3">
@@ -709,10 +699,8 @@
           <t>P02</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
+      <c r="C3" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/T23_Office/t23_17/data.xlsx
+++ b/T23_Office/t23_17/data.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,6 +554,46 @@
       </c>
       <c r="D3" t="n">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>P03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Зошит</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>шт.</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>P04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Гумка</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>шт.</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,6 +672,26 @@
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>C02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>256</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20.07.2016</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>C02</t>
         </is>
@@ -648,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,6 +763,66 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>P01</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>P03</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>P04</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>I03</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>P04</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
